--- a/Controles/Presença Projeto.xlsx
+++ b/Controles/Presença Projeto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex-\OneDrive\Área de Trabalho\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88F6D7E-CB41-4482-9970-86B61F38A5EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32052C4-D3B2-49A8-8D62-832CA3B7970B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{02EEFC9C-3A9C-47D7-8982-BD3BD4347DA7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>PRESENÇA</t>
   </si>
@@ -59,6 +59,14 @@
 Matheus Araujo
 Pedro Eduardo
 </t>
+  </si>
+  <si>
+    <t>Alex 
+Iago
+Matheus Araujo
+Guilherme Araujo
+Alan Cardoso
+Pedro Eduardo</t>
   </si>
 </sst>
 </file>
@@ -445,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5361C0F6-8F71-40A1-8944-07D75626847A}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,28 +701,66 @@
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
     </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>44651</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B55:C62"/>
     <mergeCell ref="B46:C53"/>
     <mergeCell ref="B37:C44"/>
     <mergeCell ref="E1:K3"/>
